--- a/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>535450</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>508206</v>
+        <v>513243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>554996</v>
+        <v>556238</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7715278799108066</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7322726048541689</v>
+        <v>0.7395302996112229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.799692304780065</v>
+        <v>0.8014812953744808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>534</v>
@@ -765,19 +765,19 @@
         <v>531588</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>509967</v>
+        <v>509303</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>552521</v>
+        <v>550483</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7733815146918805</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7419248850155176</v>
+        <v>0.7409601921301751</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8038347984655959</v>
+        <v>0.8008704776655348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1062</v>
@@ -786,19 +786,19 @@
         <v>1067038</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1033067</v>
+        <v>1033019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1095412</v>
+        <v>1099392</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7724502315094974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7478578634873089</v>
+        <v>0.7478229194823641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7929907584415149</v>
+        <v>0.7958720901340803</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>158562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139016</v>
+        <v>137774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>185806</v>
+        <v>180769</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2284721200891934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2003076952199351</v>
+        <v>0.1985187046255193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2677273951458312</v>
+        <v>0.2604697003887772</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>161</v>
@@ -836,19 +836,19 @@
         <v>155768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>134835</v>
+        <v>136873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>177389</v>
+        <v>178053</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2266184853081194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1961652015344041</v>
+        <v>0.1991295223344651</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2580751149844825</v>
+        <v>0.2590398078698248</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -857,19 +857,19 @@
         <v>314330</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>285956</v>
+        <v>281976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>348301</v>
+        <v>348349</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2275497684905025</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2070092415584852</v>
+        <v>0.2041279098659198</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2521421365126912</v>
+        <v>0.2521770805176359</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>674069</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>641813</v>
+        <v>642647</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>702571</v>
+        <v>703720</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7016314616018166</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6680567284282877</v>
+        <v>0.6689247819208894</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7312990309918053</v>
+        <v>0.7324948935243913</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>660</v>
@@ -982,19 +982,19 @@
         <v>715326</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>689693</v>
+        <v>686645</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>742177</v>
+        <v>741469</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7395527544811668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7130508206015455</v>
+        <v>0.7098995283805293</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.767312607862678</v>
+        <v>0.7665808082913008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1287</v>
@@ -1003,19 +1003,19 @@
         <v>1389395</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1350142</v>
+        <v>1347608</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1428498</v>
+        <v>1427029</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7206562950936406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7002962437978517</v>
+        <v>0.6989821675647591</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7409384161770988</v>
+        <v>0.7401761878965593</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>286647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>258145</v>
+        <v>256996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>318903</v>
+        <v>318069</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2983685383981834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2687009690081948</v>
+        <v>0.2675051064756086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3319432715717123</v>
+        <v>0.3310752180791106</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>247</v>
@@ -1053,19 +1053,19 @@
         <v>251916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>225065</v>
+        <v>225773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>277549</v>
+        <v>280597</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2604472455188333</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.232687392137322</v>
+        <v>0.2334191917086996</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2869491793984544</v>
+        <v>0.290100471619471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>515</v>
@@ -1074,19 +1074,19 @@
         <v>538563</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>499460</v>
+        <v>500929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>577816</v>
+        <v>580350</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2793437049063594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2590615838229012</v>
+        <v>0.2598238121034407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2997037562021483</v>
+        <v>0.3010178324352408</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>438139</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>411732</v>
+        <v>412578</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>462469</v>
+        <v>463323</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6474094003104628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6083885660537487</v>
+        <v>0.6096387236331033</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6833589622499608</v>
+        <v>0.6846216657444734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>471</v>
@@ -1199,19 +1199,19 @@
         <v>461929</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>437407</v>
+        <v>437567</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>489153</v>
+        <v>484816</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6754911016940177</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6396321519416783</v>
+        <v>0.6398669183844206</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7153018223356142</v>
+        <v>0.7089599326318859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>892</v>
@@ -1220,19 +1220,19 @@
         <v>900068</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>867193</v>
+        <v>866416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>937114</v>
+        <v>932907</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6615233473317701</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6373609802742799</v>
+        <v>0.6367899107810219</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6887510142780077</v>
+        <v>0.685659026496085</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>238619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214289</v>
+        <v>213435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265026</v>
+        <v>264180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3525905996895372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3166410377500391</v>
+        <v>0.3153783342555266</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3916114339462512</v>
+        <v>0.3903612763668964</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -1270,19 +1270,19 @@
         <v>221912</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>194688</v>
+        <v>199025</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>246434</v>
+        <v>246274</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3245088983059823</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.284698177664386</v>
+        <v>0.2910400673681142</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3603678480583219</v>
+        <v>0.3601330816155798</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>444</v>
@@ -1291,19 +1291,19 @@
         <v>460531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>423485</v>
+        <v>427692</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>493406</v>
+        <v>494183</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3384766526682299</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3112489857219923</v>
+        <v>0.3143409735039152</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.36263901972572</v>
+        <v>0.3632100892189781</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>655704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>622964</v>
+        <v>629178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>679500</v>
+        <v>681514</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6983072785967667</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6634402382529383</v>
+        <v>0.6700577938449886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7236499573269971</v>
+        <v>0.7257947261204506</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>698</v>
@@ -1416,19 +1416,19 @@
         <v>731823</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>701341</v>
+        <v>703272</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>760390</v>
+        <v>758460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7052816112937952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6759054847876211</v>
+        <v>0.6777661470523592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7328131202227228</v>
+        <v>0.7309524802974793</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1388</v>
@@ -1437,19 +1437,19 @@
         <v>1387526</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1344973</v>
+        <v>1347463</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1425986</v>
+        <v>1428404</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7019684687163874</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.680440109260194</v>
+        <v>0.6817001269838037</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7214257982010492</v>
+        <v>0.7226491433819732</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>283286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259490</v>
+        <v>257476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316026</v>
+        <v>309812</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3016927214032333</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2763500426730027</v>
+        <v>0.2742052738795495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3365597617470617</v>
+        <v>0.3299422061550115</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>298</v>
@@ -1487,19 +1487,19 @@
         <v>305809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>277242</v>
+        <v>279172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>336291</v>
+        <v>334360</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2947183887062048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2671868797772773</v>
+        <v>0.2690475197025208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3240945152123791</v>
+        <v>0.322233852947641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>599</v>
@@ -1508,19 +1508,19 @@
         <v>589096</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>550636</v>
+        <v>548218</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>631649</v>
+        <v>629159</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2980315312836126</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2785742017989508</v>
+        <v>0.2773508566180269</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.319559890739806</v>
+        <v>0.3182998730161964</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2303361</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2251253</v>
+        <v>2251537</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2354612</v>
+        <v>2356589</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7042892946068394</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6883563924830234</v>
+        <v>0.688443060098694</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7199601744754434</v>
+        <v>0.720564399926435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2363</v>
@@ -1633,19 +1633,19 @@
         <v>2440666</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2388600</v>
+        <v>2391285</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2495223</v>
+        <v>2489051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7229309436597393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7075089307105324</v>
+        <v>0.7083042491732718</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.739090811669768</v>
+        <v>0.7372627195006702</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4629</v>
@@ -1654,19 +1654,19 @@
         <v>4744028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4663278</v>
+        <v>4666749</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4818640</v>
+        <v>4821884</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7137582014626049</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.701609028763891</v>
+        <v>0.7021312293361965</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7249838697388113</v>
+        <v>0.7254719673238966</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>967115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>915864</v>
+        <v>913887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1019223</v>
+        <v>1018939</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2957107053931606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2800398255245568</v>
+        <v>0.279435600073565</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3116436075169767</v>
+        <v>0.311556939901306</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>931</v>
@@ -1704,19 +1704,19 @@
         <v>935405</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>880848</v>
+        <v>887020</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>987471</v>
+        <v>984786</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2770690563402606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2609091883302322</v>
+        <v>0.26273728049933</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2924910692894676</v>
+        <v>0.2916957508267282</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1874</v>
@@ -1725,19 +1725,19 @@
         <v>1902520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1827908</v>
+        <v>1824664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1983270</v>
+        <v>1979799</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.286241798537395</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2750161302611886</v>
+        <v>0.2745280326761033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.298390971236109</v>
+        <v>0.2978687706638035</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>447624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>421726</v>
+        <v>420199</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>472086</v>
+        <v>473811</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6450307261837939</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6077125832406277</v>
+        <v>0.6055116297427822</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6802817213823619</v>
+        <v>0.6827670280658295</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>464</v>
@@ -2090,19 +2090,19 @@
         <v>499339</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>474825</v>
+        <v>475812</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>522940</v>
+        <v>523249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.722265316141413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6868069071584753</v>
+        <v>0.6882350131232265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7564034891571982</v>
+        <v>0.7568506189240384</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>891</v>
@@ -2111,19 +2111,19 @@
         <v>946962</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>910018</v>
+        <v>910080</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>981712</v>
+        <v>981767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6835753619882315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6569068589484677</v>
+        <v>0.6569517972501218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7086605414619661</v>
+        <v>0.7087000921759845</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>246333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>221871</v>
+        <v>220146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272231</v>
+        <v>273758</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3549692738162061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3197182786176377</v>
+        <v>0.3172329719341704</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3922874167593721</v>
+        <v>0.3944883702572179</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -2161,19 +2161,19 @@
         <v>192012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>168411</v>
+        <v>168102</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>216526</v>
+        <v>215539</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.277734683858587</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.243596510842802</v>
+        <v>0.2431493810759617</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3131930928415248</v>
+        <v>0.3117649868767736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>419</v>
@@ -2182,19 +2182,19 @@
         <v>438345</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>403595</v>
+        <v>403540</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>475289</v>
+        <v>475227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3164246380117685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2913394585380339</v>
+        <v>0.2912999078240157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3430931410515324</v>
+        <v>0.3430482027498784</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>692367</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>662303</v>
+        <v>660999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>721268</v>
+        <v>720350</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6873816308602619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6575346781375123</v>
+        <v>0.6562403103184292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7160754414294795</v>
+        <v>0.7151631802057042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>694</v>
@@ -2307,19 +2307,19 @@
         <v>765223</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>735086</v>
+        <v>735377</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>792701</v>
+        <v>792837</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.747363081840363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7179291964286335</v>
+        <v>0.7182138623241394</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7741994991268345</v>
+        <v>0.7743324385749549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1327</v>
@@ -2328,19 +2328,19 @@
         <v>1457589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1413402</v>
+        <v>1415776</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1498845</v>
+        <v>1499095</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7176181181921144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6958633691440801</v>
+        <v>0.6970320996882332</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7379294304790889</v>
+        <v>0.7380527393897151</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>314885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>285984</v>
+        <v>286902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>344949</v>
+        <v>346253</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3126183691397381</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2839245585705206</v>
+        <v>0.2848368197942957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.342465321862488</v>
+        <v>0.3437596896815708</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>238</v>
@@ -2378,19 +2378,19 @@
         <v>258674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>231196</v>
+        <v>231060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>288811</v>
+        <v>288520</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2526369181596369</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2258005008731655</v>
+        <v>0.2256675614250449</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2820708035713665</v>
+        <v>0.2817861376758602</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>531</v>
@@ -2399,19 +2399,19 @@
         <v>573560</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>532304</v>
+        <v>532054</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>617747</v>
+        <v>615373</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2823818818078856</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2620705695209113</v>
+        <v>0.261947260610285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.30413663085592</v>
+        <v>0.3029679003117668</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>493541</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>464968</v>
+        <v>465900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>519288</v>
+        <v>518580</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6611512100952048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6228752268430388</v>
+        <v>0.6241237258035848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6956427172981338</v>
+        <v>0.6946940256179004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>490</v>
@@ -2524,19 +2524,19 @@
         <v>541429</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>517403</v>
+        <v>514292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>569150</v>
+        <v>566839</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7006763495721702</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6695842231684265</v>
+        <v>0.6655577753879088</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7365506569077442</v>
+        <v>0.7335602434447269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>932</v>
@@ -2545,19 +2545,19 @@
         <v>1034970</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>997061</v>
+        <v>996052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1073452</v>
+        <v>1073670</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.68125506892302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6563020279681909</v>
+        <v>0.6556378766874391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7065849650537976</v>
+        <v>0.7067284412664605</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>252946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>227199</v>
+        <v>227907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281519</v>
+        <v>280587</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3388487899047952</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3043572827018662</v>
+        <v>0.3053059743820996</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3771247731569612</v>
+        <v>0.3758762741964152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -2595,19 +2595,19 @@
         <v>231294</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>203573</v>
+        <v>205884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255320</v>
+        <v>258431</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2993236504278299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2634493430922557</v>
+        <v>0.266439756555273</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3304157768315736</v>
+        <v>0.3344422246120911</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>447</v>
@@ -2616,19 +2616,19 @@
         <v>484241</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>445759</v>
+        <v>445541</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>522150</v>
+        <v>523159</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.31874493107698</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2934150349462027</v>
+        <v>0.2932715587335395</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3436979720318092</v>
+        <v>0.3443621233125609</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>698599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>670010</v>
+        <v>669835</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>724674</v>
+        <v>724479</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7442548580176883</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7137976845313047</v>
+        <v>0.7136110494691807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7720341341246953</v>
+        <v>0.7718265277423226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>805</v>
@@ -2741,19 +2741,19 @@
         <v>846398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>822058</v>
+        <v>820291</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>872750</v>
+        <v>868497</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8178286413014562</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7943099993134346</v>
+        <v>0.7926030626323701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8432909596051431</v>
+        <v>0.8391822909152014</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1475</v>
@@ -2762,19 +2762,19 @@
         <v>1544996</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1505417</v>
+        <v>1507728</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1583495</v>
+        <v>1581320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7828363303257997</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7627818077786657</v>
+        <v>0.7639528407094508</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8023433428931644</v>
+        <v>0.8012412793885371</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>240056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>213981</v>
+        <v>214176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>268645</v>
+        <v>268820</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2557451419823116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2279658658753045</v>
+        <v>0.2281734722576774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2862023154686939</v>
+        <v>0.2863889505308194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>183</v>
@@ -2812,19 +2812,19 @@
         <v>188535</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>162183</v>
+        <v>166436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212875</v>
+        <v>214642</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1821713586985439</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1567090403948568</v>
+        <v>0.1608177090847983</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2056900006865653</v>
+        <v>0.2073969373676298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>414</v>
@@ -2833,19 +2833,19 @@
         <v>428592</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>390093</v>
+        <v>392268</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>468171</v>
+        <v>465860</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2171636696742003</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1976566571068356</v>
+        <v>0.198758720611463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2372181922213344</v>
+        <v>0.2360471592905493</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2332130</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2276677</v>
+        <v>2279432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2384210</v>
+        <v>2388084</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6886850885341197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.672309632892565</v>
+        <v>0.6731231967056954</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.704064408406783</v>
+        <v>0.7052084031844551</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2453</v>
@@ -2958,19 +2958,19 @@
         <v>2652387</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2597305</v>
+        <v>2596012</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2700875</v>
+        <v>2701601</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7528982484390894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7372628323337158</v>
+        <v>0.7368957849215302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7666616446995475</v>
+        <v>0.7668678618433383</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4625</v>
@@ -2979,19 +2979,19 @@
         <v>4984518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4904648</v>
+        <v>4910244</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5067765</v>
+        <v>5053039</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7214262102111954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7098663499642206</v>
+        <v>0.7106763472629843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7334748714646159</v>
+        <v>0.7313434982175663</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1054222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1002142</v>
+        <v>998268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1109675</v>
+        <v>1106920</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3113149114658803</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.295935591593217</v>
+        <v>0.2947915968155448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.327690367107435</v>
+        <v>0.3268768032943042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>814</v>
@@ -3029,19 +3029,19 @@
         <v>870516</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>822028</v>
+        <v>821302</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>925598</v>
+        <v>926891</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2471017515609106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2333383553004525</v>
+        <v>0.2331321381566617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.262737167666284</v>
+        <v>0.2631042150784696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1811</v>
@@ -3050,19 +3050,19 @@
         <v>1924737</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1841490</v>
+        <v>1856216</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2004607</v>
+        <v>1999011</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2785737897888047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2665251285353843</v>
+        <v>0.2686565017824337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2901336500357795</v>
+        <v>0.2893236527370151</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>534612</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>512170</v>
+        <v>513665</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>556837</v>
+        <v>554564</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7958976978989503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.762488047201932</v>
+        <v>0.7647136028482759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.828985346409618</v>
+        <v>0.8256021936241774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>559</v>
@@ -3415,19 +3415,19 @@
         <v>567368</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>549118</v>
+        <v>550490</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>583665</v>
+        <v>585777</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8492814136457337</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8219634178526767</v>
+        <v>0.8240162061408162</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8736753612474502</v>
+        <v>0.8768367511755196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1077</v>
@@ -3436,19 +3436,19 @@
         <v>1101980</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1072176</v>
+        <v>1071566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1127425</v>
+        <v>1129520</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8225168055916803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8002707663174237</v>
+        <v>0.7998157333372915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8415089684965348</v>
+        <v>0.8430725364623577</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>137097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114872</v>
+        <v>117145</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159539</v>
+        <v>158044</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2041023021010497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.171014653590382</v>
+        <v>0.1743978063758226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2375119527980679</v>
+        <v>0.235286397151724</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -3486,19 +3486,19 @@
         <v>100689</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84392</v>
+        <v>82280</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118939</v>
+        <v>117567</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1507185863542662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1263246387525495</v>
+        <v>0.1231632488244807</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1780365821473228</v>
+        <v>0.1759837938591839</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>233</v>
@@ -3507,19 +3507,19 @@
         <v>237786</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>212341</v>
+        <v>210246</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>267590</v>
+        <v>268200</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1774831944083197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1584910315034652</v>
+        <v>0.1569274635376422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1997292336825763</v>
+        <v>0.2001842666627079</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>827550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>801605</v>
+        <v>801798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>854622</v>
+        <v>852978</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8143186370086981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7887883021721148</v>
+        <v>0.7889790838836126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8409583159445307</v>
+        <v>0.8393407087617853</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>832</v>
@@ -3632,19 +3632,19 @@
         <v>894655</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>871293</v>
+        <v>872036</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>916750</v>
+        <v>915273</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8645591159422932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8419831155615275</v>
+        <v>0.8427011907627343</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8859101040792059</v>
+        <v>0.8844830675272836</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1604</v>
@@ -3653,19 +3653,19 @@
         <v>1722205</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1686711</v>
+        <v>1687885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1754295</v>
+        <v>1754878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8396662251687768</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8223609084061767</v>
+        <v>0.8229335750622687</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8553116494880072</v>
+        <v>0.8555958986796325</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>188698</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161626</v>
+        <v>163270</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>214643</v>
+        <v>214450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1856813629913019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1590416840554693</v>
+        <v>0.1606592912382147</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2112116978278852</v>
+        <v>0.2110209161163874</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>137</v>
@@ -3703,19 +3703,19 @@
         <v>140156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>118061</v>
+        <v>119538</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>163518</v>
+        <v>162775</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1354408840577069</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1140898959207941</v>
+        <v>0.1155169324727165</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1580168844384728</v>
+        <v>0.1572988092372656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>311</v>
@@ -3724,19 +3724,19 @@
         <v>328854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>296764</v>
+        <v>296181</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>364348</v>
+        <v>363174</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1603337748312232</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1446883505119927</v>
+        <v>0.1444041013203676</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1776390915938233</v>
+        <v>0.1770664249377313</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>646072</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>625167</v>
+        <v>625047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>664307</v>
+        <v>663564</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8618773349392127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8339891567028828</v>
+        <v>0.8338290307895166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8862041357084561</v>
+        <v>0.8852120264406229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>621</v>
@@ -3849,19 +3849,19 @@
         <v>663298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>643783</v>
+        <v>642538</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>683109</v>
+        <v>682601</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8589077122113606</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8336372583838881</v>
+        <v>0.8320244099797512</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8845603377680527</v>
+        <v>0.8839029441486205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1212</v>
@@ -3870,19 +3870,19 @@
         <v>1309371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1279482</v>
+        <v>1279361</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1334390</v>
+        <v>1335880</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8603704271025273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8407309145400841</v>
+        <v>0.8406510469875074</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8768102778399688</v>
+        <v>0.8777893318460275</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>103538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85303</v>
+        <v>86046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124443</v>
+        <v>124563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1381226650607873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1137958642915439</v>
+        <v>0.1147879735593769</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1660108432971175</v>
+        <v>0.1661709692104834</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>104</v>
@@ -3920,19 +3920,19 @@
         <v>108960</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>89149</v>
+        <v>89657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128475</v>
+        <v>129720</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1410922877886394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1154396622319473</v>
+        <v>0.1160970558513795</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1663627416161116</v>
+        <v>0.1679755900202485</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>200</v>
@@ -3941,19 +3941,19 @@
         <v>212498</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187479</v>
+        <v>185989</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>242387</v>
+        <v>242508</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1396295728974727</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1231897221600314</v>
+        <v>0.1222106681539724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.159269085459916</v>
+        <v>0.1593489530124926</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>750366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>728626</v>
+        <v>727127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>774070</v>
+        <v>772573</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8064763510835907</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7831108982311462</v>
+        <v>0.7815001186258661</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8319528664148433</v>
+        <v>0.8303442001747534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>776</v>
@@ -4066,19 +4066,19 @@
         <v>849678</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>822570</v>
+        <v>823125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>873646</v>
+        <v>874956</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8220265100116526</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7958007686619832</v>
+        <v>0.7963374133383896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8452142251269656</v>
+        <v>0.8464821819347821</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1521</v>
@@ -4087,19 +4087,19 @@
         <v>1600044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1565329</v>
+        <v>1565086</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1635179</v>
+        <v>1633892</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8146600163883856</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7969850296462172</v>
+        <v>0.7968613988663815</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.83254917099835</v>
+        <v>0.8318937318699551</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>180059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156355</v>
+        <v>157852</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201799</v>
+        <v>203298</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1935236489164093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1680471335851566</v>
+        <v>0.1696557998252464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2168891017688538</v>
+        <v>0.2184998813741339</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>174</v>
@@ -4137,19 +4137,19 @@
         <v>183960</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159992</v>
+        <v>158682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>211068</v>
+        <v>210513</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1779734899883474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1547857748730344</v>
+        <v>0.1535178180652179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2041992313380167</v>
+        <v>0.2036625866616104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>355</v>
@@ -4158,19 +4158,19 @@
         <v>364019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>328884</v>
+        <v>330171</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>398734</v>
+        <v>398977</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1853399836116144</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1674508290016499</v>
+        <v>0.1681062681300448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2030149703537828</v>
+        <v>0.2031386011336184</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2758599</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2714850</v>
+        <v>2711521</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2807211</v>
+        <v>2801138</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8190633996339007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8060737342628306</v>
+        <v>0.8050853468678122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.833496925025938</v>
+        <v>0.831693634732894</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2788</v>
@@ -4283,19 +4283,19 @@
         <v>2975000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2934203</v>
+        <v>2929293</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3019692</v>
+        <v>3017180</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8478768768914284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8362497679261964</v>
+        <v>0.8348504443008191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8606141705675163</v>
+        <v>0.8598981195037871</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5414</v>
@@ -4304,19 +4304,19 @@
         <v>5733599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5670744</v>
+        <v>5667161</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5792415</v>
+        <v>5793186</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8337650546168544</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8246248718989744</v>
+        <v>0.8241038085445173</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8423180109910781</v>
+        <v>0.842430110436286</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>609393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>560781</v>
+        <v>566854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>653142</v>
+        <v>656471</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1809366003660992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1665030749740618</v>
+        <v>0.1683063652671061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1939262657371694</v>
+        <v>0.1949146531321881</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>517</v>
@@ -4354,19 +4354,19 @@
         <v>533764</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>489072</v>
+        <v>491584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>574561</v>
+        <v>579471</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1521231231085716</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1393858294324834</v>
+        <v>0.1401018804962129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1637502320738036</v>
+        <v>0.1651495556991809</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1099</v>
@@ -4375,19 +4375,19 @@
         <v>1143157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1084341</v>
+        <v>1083570</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1206012</v>
+        <v>1209595</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1662349453831456</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.157681989008922</v>
+        <v>0.1575698895637139</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1753751281010257</v>
+        <v>0.1758961914554828</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>405079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>376798</v>
+        <v>378126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>434886</v>
+        <v>437920</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5949658947591466</v>
+        <v>0.5949658947591465</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5534273923540824</v>
+        <v>0.5553776761073571</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6387450745394532</v>
+        <v>0.6432013800247968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>806</v>
@@ -4740,19 +4740,19 @@
         <v>448388</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>425572</v>
+        <v>425949</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>470953</v>
+        <v>469242</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6277646261484462</v>
+        <v>0.6277646261484463</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5958212874628249</v>
+        <v>0.5963493545324804</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6593573185600852</v>
+        <v>0.6569611921909916</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1268</v>
@@ -4761,19 +4761,19 @@
         <v>853467</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>817149</v>
+        <v>814423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>890505</v>
+        <v>889744</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6117580819998577</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5857255877414433</v>
+        <v>0.5837716797135207</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6383068055630414</v>
+        <v>0.6377611358684587</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>275765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>245958</v>
+        <v>242924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>304046</v>
+        <v>302718</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4050341052408534</v>
+        <v>0.4050341052408533</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3612549254605473</v>
+        <v>0.3567986199752037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4465726076459177</v>
+        <v>0.4446223238926428</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>399</v>
@@ -4811,19 +4811,19 @@
         <v>265873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243308</v>
+        <v>245019</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288689</v>
+        <v>288312</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3722353738515537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3406426814399151</v>
+        <v>0.3430388078090085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4041787125371752</v>
+        <v>0.4036506454675198</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>657</v>
@@ -4832,19 +4832,19 @@
         <v>541638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>504600</v>
+        <v>505361</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>577956</v>
+        <v>580682</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3882419180001422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3616931944369588</v>
+        <v>0.3622388641315412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4142744122585571</v>
+        <v>0.4162283202864793</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>680774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>644916</v>
+        <v>644637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>716414</v>
+        <v>712098</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6588194206398655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.624118270617964</v>
+        <v>0.6238482815841975</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6933099726191622</v>
+        <v>0.689133465353494</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1064</v>
@@ -4957,19 +4957,19 @@
         <v>725136</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>696690</v>
+        <v>693995</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>754126</v>
+        <v>750792</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6890515077016622</v>
+        <v>0.6890515077016625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6620209506473934</v>
+        <v>0.659460677794248</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7165995652081463</v>
+        <v>0.7134308343544989</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1709</v>
@@ -4978,19 +4978,19 @@
         <v>1405910</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1359462</v>
+        <v>1358573</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1450059</v>
+        <v>1448129</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.674073483161554</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.651803648130678</v>
+        <v>0.6513773924877342</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6952414115668987</v>
+        <v>0.6943156117586369</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>352550</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>316910</v>
+        <v>321226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>388408</v>
+        <v>388687</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3411805793601345</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3066900273808378</v>
+        <v>0.3108665346465057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3758817293820361</v>
+        <v>0.3761517184158027</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>425</v>
@@ -5028,19 +5028,19 @@
         <v>327232</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>298242</v>
+        <v>301576</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>355678</v>
+        <v>358373</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3109484922983376</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2834004347918537</v>
+        <v>0.2865691656455011</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3379790493526065</v>
+        <v>0.3405393222057518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>728</v>
@@ -5049,19 +5049,19 @@
         <v>679782</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>635633</v>
+        <v>637563</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>726230</v>
+        <v>727119</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.325926516838446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3047585884331014</v>
+        <v>0.3056843882413632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3481963518693221</v>
+        <v>0.3486226075122658</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>536061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>501875</v>
+        <v>505065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>564989</v>
+        <v>567338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6758272452756299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6327280144380675</v>
+        <v>0.6367504622537116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.712298271189082</v>
+        <v>0.7152597131654571</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>687</v>
@@ -5174,19 +5174,19 @@
         <v>527798</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>500714</v>
+        <v>503108</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>553138</v>
+        <v>553291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6584611764084005</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6246723553659506</v>
+        <v>0.6276581478460552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6900743835049048</v>
+        <v>0.6902652704750141</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1146</v>
@@ -5195,19 +5195,19 @@
         <v>1063860</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1024499</v>
+        <v>1024885</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1104336</v>
+        <v>1106078</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6670986341731201</v>
+        <v>0.6670986341731199</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6424171663231411</v>
+        <v>0.64265927959388</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6924794654205741</v>
+        <v>0.6935718055338898</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>257131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228203</v>
+        <v>225854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291317</v>
+        <v>288127</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3241727547243702</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.287701728810918</v>
+        <v>0.2847402868345427</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3672719855619325</v>
+        <v>0.3632495377462885</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>345</v>
@@ -5245,19 +5245,19 @@
         <v>273765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>248425</v>
+        <v>248272</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>300849</v>
+        <v>298455</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3415388235915994</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3099256164950951</v>
+        <v>0.3097347295249859</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3753276446340493</v>
+        <v>0.3723418521539447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>553</v>
@@ -5266,19 +5266,19 @@
         <v>530896</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>490420</v>
+        <v>488678</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>570257</v>
+        <v>569871</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3329013658268799</v>
+        <v>0.33290136582688</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3075205345794258</v>
+        <v>0.3064281944661098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.357582833676859</v>
+        <v>0.3573407204061199</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>616291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>578583</v>
+        <v>585292</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>646032</v>
+        <v>647477</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6340959345148425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5952991725404053</v>
+        <v>0.6022022068850984</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6646964083793298</v>
+        <v>0.6661837726107804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>988</v>
@@ -5391,19 +5391,19 @@
         <v>691012</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>662434</v>
+        <v>661465</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>718679</v>
+        <v>718854</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6313971325365172</v>
+        <v>0.6313971325365173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6052844975289871</v>
+        <v>0.6043987279725251</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6566772078820838</v>
+        <v>0.6568363853986242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1642</v>
@@ -5412,19 +5412,19 @@
         <v>1307304</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1256055</v>
+        <v>1262916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1348743</v>
+        <v>1349766</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6326665374300612</v>
+        <v>0.6326665374300613</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6078650709257573</v>
+        <v>0.6111853473157124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6527211235507244</v>
+        <v>0.6532163610335032</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>355629</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325888</v>
+        <v>324443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>393337</v>
+        <v>386628</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3659040654851574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3353035916206704</v>
+        <v>0.3338162273892197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4047008274595948</v>
+        <v>0.3977977931149015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>540</v>
@@ -5462,19 +5462,19 @@
         <v>403406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>375739</v>
+        <v>375564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>431984</v>
+        <v>432953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3686028674634828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.343322792117916</v>
+        <v>0.3431636146013759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3947155024710128</v>
+        <v>0.3956012720274754</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>871</v>
@@ -5483,19 +5483,19 @@
         <v>759035</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>717596</v>
+        <v>716573</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>810284</v>
+        <v>803423</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3673334625699389</v>
+        <v>0.3673334625699388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3472788764492757</v>
+        <v>0.3467836389664969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3921349290742431</v>
+        <v>0.3888146526842877</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>2238205</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2173128</v>
+        <v>2169424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2298644</v>
+        <v>2305912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6432952188275232</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6245911562373818</v>
+        <v>0.6235266547119697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6606664978627604</v>
+        <v>0.6627552828603717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3545</v>
@@ -5608,19 +5608,19 @@
         <v>2392335</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2340942</v>
+        <v>2336996</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2451871</v>
+        <v>2442346</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6531773864581415</v>
+        <v>0.6531773864581414</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6391457221643948</v>
+        <v>0.6380684252720714</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6694325958565666</v>
+        <v>0.6668319240651485</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5765</v>
@@ -5629,19 +5629,19 @@
         <v>4630539</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4545311</v>
+        <v>4548401</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4721139</v>
+        <v>4713356</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6483631387211735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6364295694983511</v>
+        <v>0.6368622459084096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6610489075515249</v>
+        <v>0.6599590698399581</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1241076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1180637</v>
+        <v>1173369</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1306153</v>
+        <v>1309857</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3567047811724767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3393335021372396</v>
+        <v>0.3372447171396288</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3754088437626181</v>
+        <v>0.3764733452880303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1709</v>
@@ -5679,19 +5679,19 @@
         <v>1270276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1210740</v>
+        <v>1220265</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1321669</v>
+        <v>1325615</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3468226135418585</v>
+        <v>0.3468226135418584</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3305674041434335</v>
+        <v>0.3331680759348513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3608542778356052</v>
+        <v>0.3619315747279285</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2809</v>
@@ -5700,19 +5700,19 @@
         <v>2511352</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2420752</v>
+        <v>2428535</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2596580</v>
+        <v>2593490</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3516368612788265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3389510924484757</v>
+        <v>0.3400409301600418</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3635704305016489</v>
+        <v>0.3631377540915906</v>
       </c>
     </row>
     <row r="18">
